--- a/data/trans_dic/P16A10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,78%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>10,24; 14,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>10,67; 15,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>10,8; 15,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>12,93; 18,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>9,34; 12,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>9,15; 12,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>10,48; 14,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>14,0; 18,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>10,35; 12,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>10,44; 13,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>11,27; 14,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>14,17; 17,39</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,76; 3,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,73; 3,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,39; 5,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,39; 5,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,1; 2,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,84; 2,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,82; 3,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,81; 3,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,59; 2,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,47; 2,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>2,85; 4,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,72; 3,78</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,99; 3,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,84; 3,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,8; 5,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,72; 5,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,73; 3,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,54; 4,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,23; 2,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,07; 2,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,57; 2,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,02; 4,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,16; 3,67</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,7; 6,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,5; 6,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,17; 6,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,09; 6,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,6; 6,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,11; 5,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,62; 6,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,63; 5,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,8; 5,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,52; 5,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,1; 6,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,04; 6,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,93; 18,15</t>
+          <t>12,69; 17,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 18,01</t>
+          <t>13,82; 17,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,17; 17,39</t>
+          <t>14,02; 17,2</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,02</t>
+          <t>2,48; 4,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,02</t>
+          <t>1,47; 2,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,78</t>
+          <t>2,28; 3,45</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,29</t>
+          <t>2,73; 5,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,97</t>
+          <t>1,25; 3,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,67</t>
+          <t>2,19; 3,7</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 6,7</t>
+          <t>4,18; 6,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 5,87</t>
+          <t>4,04; 5,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 6,07</t>
+          <t>4,46; 5,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,24; 14,37</t>
+          <t>10,29; 14,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 15,21</t>
+          <t>10,75; 15,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,8; 15,14</t>
+          <t>10,93; 15,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,69; 17,98</t>
+          <t>12,74; 18,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,34; 12,7</t>
+          <t>9,22; 12,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 12,6</t>
+          <t>9,14; 12,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 14,93</t>
+          <t>10,45; 15,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 17,71</t>
+          <t>13,98; 17,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 12,97</t>
+          <t>10,24; 12,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 13,29</t>
+          <t>10,32; 13,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,27; 14,45</t>
+          <t>10,84; 14,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,02; 17,2</t>
+          <t>13,97; 17,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,19</t>
+          <t>1,73; 3,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,16</t>
+          <t>1,74; 3,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,24</t>
+          <t>3,41; 5,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,5</t>
+          <t>2,5; 4,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,42</t>
+          <t>1,15; 2,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,04</t>
+          <t>0,8; 1,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,29</t>
+          <t>1,79; 3,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,81</t>
+          <t>1,52; 2,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,58</t>
+          <t>1,55; 2,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,35</t>
+          <t>1,44; 2,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,01</t>
+          <t>2,84; 4,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,45</t>
+          <t>2,3; 3,47</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,85</t>
+          <t>1,0; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,53</t>
+          <t>0,79; 3,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,22</t>
+          <t>1,83; 5,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,23</t>
+          <t>2,78; 5,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,27</t>
+          <t>0,74; 3,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,47</t>
+          <t>1,52; 4,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,03</t>
+          <t>1,22; 3,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,92</t>
+          <t>1,12; 2,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,18</t>
+          <t>0,57; 2,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,24</t>
+          <t>2,0; 4,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,7</t>
+          <t>2,22; 3,74</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1145,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 6,18</t>
+          <t>4,62; 6,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 6,13</t>
+          <t>4,58; 6,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 6,81</t>
+          <t>5,26; 6,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,09</t>
+          <t>4,57; 6,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,53</t>
+          <t>4,1; 5,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,24</t>
+          <t>4,56; 6,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 5,56</t>
+          <t>4,09; 5,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 5,91</t>
+          <t>4,8; 5,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 5,57</t>
+          <t>4,54; 5,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 6,28</t>
+          <t>5,08; 6,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 5,71</t>
+          <t>4,5; 5,75</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>126563</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>125275</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>97233</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>78207</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>144260</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>143793</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>125591</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>118640</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>270823</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>269068</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>222824</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>196847</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>106143; 145784</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>104583; 147557</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>82434; 113547</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>65460; 93050</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>121239; 166423</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>121764; 166325</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>103953; 149903</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>105030; 132087</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>240225; 303353</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>237987; 302388</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>189651; 250067</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>176759; 217728</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39408</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46232</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>88669</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>83388</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26905</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23344</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>49190</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48148</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>69576</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>137860</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>131536</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>29229; 54206</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34131; 62512</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>70899; 109438</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>57328; 104286</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18293; 39039</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14038; 34419</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>35495; 65558</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33905; 62865</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>50917; 83443</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>53461; 89878</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>115474; 163287</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>104027; 157276</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11336</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8981</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17198</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24959</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7779</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2215</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14777</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12741</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19115</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11196</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31974</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>37700</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5509; 20676</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3774; 16536</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9994; 27933</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17985; 34399</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3528; 15546</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7879</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8360; 24294</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8082; 20312</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11474; 30758</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5346; 21211</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21926; 46369</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>28966; 48875</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>177307</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>180488</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>203100</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>186554</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>178944</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>169352</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>189558</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>179530</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>356251</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>349840</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>392658</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>366084</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>151478; 205422</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>156288; 208910</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>177683; 234719</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>144269; 214283</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>154492; 204222</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>145424; 197266</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>160922; 218296</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>149276; 204620</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>319374; 391562</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>316041; 392097</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>350968; 432557</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>319534; 408345</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>